--- a/runs/LeNet5/train_logs.xlsx
+++ b/runs/LeNet5/train_logs.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.751155138015747</v>
+        <v>0.8273487687110901</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.304602146148682</v>
+        <v>0.2995401322841644</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.305408954620361</v>
+        <v>0.2161038517951965</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.305121421813965</v>
+        <v>0.1686682850122452</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.305267095565796</v>
+        <v>0.1382133513689041</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.3055419921875</v>
+        <v>0.1178940758109093</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.305341720581055</v>
+        <v>0.104906901717186</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.305215120315552</v>
+        <v>0.09337358921766281</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.305500984191895</v>
+        <v>0.08519416302442551</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.305881261825562</v>
+        <v>0.07767699658870697</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.305651426315308</v>
+        <v>0.07224463671445847</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.306686878204346</v>
+        <v>0.06798754632472992</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.306700706481934</v>
+        <v>0.06296975165605545</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.305764198303223</v>
+        <v>0.05976507067680359</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.305535316467285</v>
+        <v>0.05647417530417442</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.305217504501343</v>
+        <v>0.05374400317668915</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.306369066238403</v>
+        <v>0.05173739418387413</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.305814027786255</v>
+        <v>0.04845388606190681</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.329863548278809</v>
+        <v>0.04665611311793327</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -605,9 +605,889 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.311194181442261</v>
+        <v>0.0448438934981823</v>
       </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.04282565787434578</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.04109389707446098</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.04010280594229698</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.03847059607505798</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.03637249767780304</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.03513617813587189</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.0339948944747448</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.03280091285705566</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.03146210685372353</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.0302457008510828</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.02889939025044441</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.02864084206521511</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.0271926186978817</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.02553034014999866</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.02534841746091843</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.0244844164699316</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.02390149608254433</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.022968715056777</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.0218539834022522</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.02187520824372768</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.0200647059828043</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.01958483085036278</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.01922009326517582</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.01883279904723167</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.01779196411371231</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.01758359558880329</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.0164188165217638</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.01583200506865978</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.01547240652143955</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.01492126379162073</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.01446583867073059</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.01371561456471682</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.01298331469297409</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.01270243618637323</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.01221841014921665</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.01225875504314899</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.0112337963655591</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.01047509722411633</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.0109464880079031</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.01036457717418671</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.009220251813530922</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.009399826638400555</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.00985601544380188</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.00826396606862545</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.008653213270008564</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.007965189404785633</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.007691322825849056</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.007616388145834208</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.007353969383984804</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.007581228855997324</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.006558054126799107</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.006695615593343973</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.006500452756881714</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.00693519739434123</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.006105974316596985</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.00598300201818347</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.005756445229053497</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.005056275520473719</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.005808996967971325</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.004914821591228247</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.005163548048585653</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.004733032081276178</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.004700104240328074</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.004713079892098904</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.00429820129647851</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.004731981083750725</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.003731995122507215</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.00416942872107029</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.004197220783680677</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.003599771531298757</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.003549736924469471</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.003450418123975396</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.003121977439150214</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.003896502777934074</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.002859450643882155</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.004166885744780302</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.003506742184981704</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.002986372215673327</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.003602107986807823</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.002492482308298349</v>
+      </c>
+      <c r="C101">
         <v>0</v>
       </c>
     </row>
